--- a/PESTLE_Variables_sources.xlsx
+++ b/PESTLE_Variables_sources.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76deeaafb318fdf6/Masaüstü/Coding_Projects/Experimental_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC10485A811C613A5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9C491C-BC91-468C-A795-944B66F51177}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC10485A811C613A5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB6E15F5-C117-4C60-8699-F0AA8113FAEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Category</t>
   </si>
@@ -48,40 +49,25 @@
     <t>Environmental</t>
   </si>
   <si>
-    <t>Possible Factors</t>
-  </si>
-  <si>
-    <t>Type of Impact</t>
-  </si>
-  <si>
     <t>Metrics</t>
   </si>
   <si>
     <t>Carbon Emissions (kt)</t>
   </si>
   <si>
-    <t>Rule of Law</t>
-  </si>
-  <si>
     <t>RnD expenditure %gdp</t>
   </si>
   <si>
     <t>Gini Inequality Index</t>
   </si>
   <si>
-    <t>GDP??</t>
-  </si>
-  <si>
     <t>Political Stability</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Rule of Law Index</t>
   </si>
 </sst>
 </file>
@@ -111,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,13 +105,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -143,10 +147,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,20 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E5:K8"/>
+  <dimension ref="E5:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="5:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -455,45 +456,94 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="5:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6E247F-504F-40A6-B9C5-46BFE7620621}">
+  <dimension ref="H11:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="8:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
